--- a/biology/Zoologie/Charaxes_varanes/Charaxes_varanes.xlsx
+++ b/biology/Zoologie/Charaxes_varanes/Charaxes_varanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes varanes est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Charaxinae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,8 +553,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les chenilles se nourrissent de Allophylus sp..
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent de Allophylus sp..
 </t>
         </is>
       </c>
@@ -569,11 +588,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Afrique
-Biotope
-Il réside dans la forêt.
 </t>
         </is>
       </c>
@@ -599,17 +618,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Systématique</t>
+          <t>Écologie et distribution</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce  Charaxes varanes a été décrite par le naturaliste néerlandais Pieter Cramer en 1764, sous le nom initial dePapilio varanes[1]. Elle a été  reclassée dans le genre Charaxes par Rothschild et Jordan en 1900[2].
-Synonymie
-Papilio varanes Cramer, 1764 - protonyme
-Hadrodontis varanes [3]
-Nom vernaculaire
- Charaxes varanes  se nomme Pearl Charaxes en anglais[4].
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt.
 </t>
         </is>
       </c>
@@ -635,22 +655,130 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce  Charaxes varanes a été décrite par le naturaliste néerlandais Pieter Cramer en 1764, sous le nom initial dePapilio varanes. Elle a été  reclassée dans le genre Charaxes par Rothschild et Jordan en 1900.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio varanes Cramer, 1764 - protonyme
+Hadrodontis varanes </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Charaxes varanes  se nomme Pearl Charaxes en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_varanes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Il existe pour cette espèce 4 sous-espèces :
-Charaxes varanes varanes (Rothschild, 1900)[5]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe pour cette espèce 4 sous-espèces :
+Charaxes varanes varanes (Rothschild, 1900)
 Synonymie pour cette sous-espèce
 Charaxes varanes austrinus (Rothschild, 1900)
-Philognoma varanes (Wallengren, 1857)[6]
+Philognoma varanes (Wallengren, 1857)
 Palla varanes (Kirby, 1871)
-Les larves de cette sous-espèce se nourrissent sur : Allophylus natalensis, Allophylus melanocarpus, Cardiospermum sp., Rhus[7]
-Charaxes varanes bertrami (Riley, 1931)[8]
-Charaxes varanes vologeses (Mabille, 1876) [9]
-Charaxes varanes torbeni (Turlin, 1999) [10]
-Protection</t>
+Les larves de cette sous-espèce se nourrissent sur : Allophylus natalensis, Allophylus melanocarpus, Cardiospermum sp., Rhus
+Charaxes varanes bertrami (Riley, 1931)
+Charaxes varanes vologeses (Mabille, 1876) 
+Charaxes varanes torbeni (Turlin, 1999) </t>
         </is>
       </c>
     </row>
